--- a/data/trans_dic/P23_1_2016_2023_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R2-Provincia-trans_dic.xlsx
@@ -612,13 +612,13 @@
         <v>0.2748648670953197</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1579491684654907</v>
+        <v>0.1579491684654908</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.189903909235808</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03934702460138761</v>
+        <v>0.03934702460138762</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2327532801546847</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2273073526833269</v>
+        <v>0.2280787704521945</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1258606630692054</v>
+        <v>0.1260578951589611</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1444978725314093</v>
+        <v>0.1449520723953365</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0260030841826608</v>
+        <v>0.02576190611543925</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2005969959574501</v>
+        <v>0.1993452413876457</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08290037993174554</v>
+        <v>0.07957587849395469</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3293900779544644</v>
+        <v>0.339117954456905</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1996410346798185</v>
+        <v>0.195704429556016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2424410668067762</v>
+        <v>0.2397046919799337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05743962814734799</v>
+        <v>0.05629278990166163</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2696181731886159</v>
+        <v>0.2712920241180009</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1211553662424746</v>
+        <v>0.1215487109488941</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1360815882991705</v>
+        <v>0.1383405191152987</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1853853575464624</v>
+        <v>0.189291406137542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05048654743431819</v>
+        <v>0.05500708389261042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1004309092525536</v>
+        <v>0.09774328934530913</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.102284883616718</v>
+        <v>0.1016250950979546</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1501780846558924</v>
+        <v>0.1499304060909058</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2071165503381515</v>
+        <v>0.2061107990193899</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2655604369209768</v>
+        <v>0.2701792325241755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1006065414258231</v>
+        <v>0.1029788800385284</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1496624431121206</v>
+        <v>0.1497825645275286</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1428496666820575</v>
+        <v>0.1416713322862075</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1980535375806047</v>
+        <v>0.1967714832894917</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.176224515288645</v>
+        <v>0.1774082844496778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1751025160703741</v>
+        <v>0.177353685530687</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06191055300695565</v>
+        <v>0.06238667812001874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1105639846432133</v>
+        <v>0.112400271942937</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.12730899782325</v>
+        <v>0.1253582126552589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.150790333664563</v>
+        <v>0.1495641984965894</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2659231514184265</v>
+        <v>0.2662899335639086</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2582259115603236</v>
+        <v>0.2614614090470808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1254602262307485</v>
+        <v>0.1243748302156389</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1696380303867125</v>
+        <v>0.170954603296078</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1798126096076238</v>
+        <v>0.181121190680879</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2008881020891498</v>
+        <v>0.2001828712914999</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.1313643577136356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1542659225624074</v>
+        <v>0.1542659225624075</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1977584106439846</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.220073236122885</v>
+        <v>0.2262898689627076</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2342121665326366</v>
+        <v>0.2386284282410684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09882884582125732</v>
+        <v>0.1022036485000001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1237468418309907</v>
+        <v>0.1246148757515285</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1688242724847743</v>
+        <v>0.1698579912554486</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1863693504739719</v>
+        <v>0.1894567163330692</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3149237520400117</v>
+        <v>0.3217516818898998</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3427034846113775</v>
+        <v>0.3519260177083559</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1678942856653038</v>
+        <v>0.1685403904011439</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1881984093967293</v>
+        <v>0.1865340454905709</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.229173393988635</v>
+        <v>0.227433676627871</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2445251008614251</v>
+        <v>0.2502132497762806</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1563083482839756</v>
+        <v>0.1600876210826493</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05180729670276622</v>
+        <v>0.0507137629058401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06485200962362209</v>
+        <v>0.06230527460806564</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02422616020525047</v>
+        <v>0.02330239339256951</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1243857057083641</v>
+        <v>0.122102308556306</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04172159912437749</v>
+        <v>0.04187721476320259</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2702187073226491</v>
+        <v>0.2744319097639125</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.109444400971518</v>
+        <v>0.1108362694558215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.150535243472114</v>
+        <v>0.1465425113155921</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06188425813999545</v>
+        <v>0.06099382831181446</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1941932018299472</v>
+        <v>0.192576252225956</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07473892714964207</v>
+        <v>0.07532336422639598</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.06151101603997339</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.0436020401324177</v>
+        <v>0.04360204013241768</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1271617531909913</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1485665042850839</v>
+        <v>0.1494697550083288</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1318205012945419</v>
+        <v>0.1286599962728348</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03708309578028395</v>
+        <v>0.03614848910937155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02711343540106276</v>
+        <v>0.02688255376661882</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09964821094782043</v>
+        <v>0.1016914838355143</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08534826747261418</v>
+        <v>0.08602071535260612</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.246069806097093</v>
+        <v>0.2491676019118601</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2029062006518326</v>
+        <v>0.2014333439810222</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09769201236665018</v>
+        <v>0.09935041646109585</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06754753564387379</v>
+        <v>0.06766458818481438</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1557784458198059</v>
+        <v>0.1567652234449177</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1287738341322604</v>
+        <v>0.1269648976090863</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.2014454411798235</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2000764809938888</v>
+        <v>0.2000764809938887</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1264585460654794</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1720488518244438</v>
+        <v>0.1682720599595959</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1711292492287382</v>
+        <v>0.1711084202278534</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1035046936145632</v>
+        <v>0.1033266643611011</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1191983172107188</v>
+        <v>0.1200367361336403</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1415908847003051</v>
+        <v>0.1431470919063346</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1505713883140512</v>
+        <v>0.1510287586103508</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2352552622996054</v>
+        <v>0.2326629869473754</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2351140117400249</v>
+        <v>0.2314351311606711</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1552445038626152</v>
+        <v>0.1536912625271749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1633072799594369</v>
+        <v>0.1620835745555319</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1844659073790128</v>
+        <v>0.1858936005116041</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1896908136469005</v>
+        <v>0.1882372385232532</v>
       </c>
     </row>
     <row r="25">
@@ -1186,7 +1186,7 @@
         <v>0.1806686273924612</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.1438572498728068</v>
+        <v>0.1438572498728067</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.1047500042027435</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1536410754606791</v>
+        <v>0.1551861125654602</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.122622301943063</v>
+        <v>0.1201021994766961</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08337814022922126</v>
+        <v>0.0825800163178021</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04011193121091214</v>
+        <v>0.04168579731408231</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1236394355509676</v>
+        <v>0.1233921146752816</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08501123216712317</v>
+        <v>0.0858256068013195</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2088509916754545</v>
+        <v>0.210740787573221</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1667945714076189</v>
+        <v>0.1676532219062796</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1272263913091527</v>
+        <v>0.129374735576393</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06729157488780829</v>
+        <v>0.06835492793377985</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1621498515727097</v>
+        <v>0.1609249525741999</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1114272774354249</v>
+        <v>0.1111274394575653</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>0.1094004155006001</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.157319150229109</v>
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>66774</v>
+        <v>67001</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40130</v>
+        <v>40193</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>41717</v>
+        <v>41848</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8219</v>
+        <v>8142</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>116841</v>
+        <v>116111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>52634</v>
+        <v>50523</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>96762</v>
+        <v>99620</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63655</v>
+        <v>62399</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>69993</v>
+        <v>69203</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18154</v>
+        <v>17792</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>157043</v>
+        <v>158018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>76922</v>
+        <v>77172</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>68274</v>
+        <v>69407</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>98374</v>
+        <v>100447</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26298</v>
+        <v>28652</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54885</v>
+        <v>53416</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>104596</v>
+        <v>103922</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>161763</v>
+        <v>161496</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>103913</v>
+        <v>103408</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>140919</v>
+        <v>143370</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52405</v>
+        <v>53640</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>81790</v>
+        <v>81855</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>146078</v>
+        <v>144873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>213332</v>
+        <v>211951</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>56139</v>
+        <v>56516</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>55331</v>
+        <v>56043</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20821</v>
+        <v>20981</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>39403</v>
+        <v>40057</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>83371</v>
+        <v>82094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>101388</v>
+        <v>100563</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>84714</v>
+        <v>84831</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81598</v>
+        <v>82620</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42193</v>
+        <v>41828</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60456</v>
+        <v>60925</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>117755</v>
+        <v>118612</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>135072</v>
+        <v>134598</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>81419</v>
+        <v>83719</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>87395</v>
+        <v>89043</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38148</v>
+        <v>39450</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>52216</v>
+        <v>52583</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>127625</v>
+        <v>128406</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>148184</v>
+        <v>150638</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>116510</v>
+        <v>119037</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>127878</v>
+        <v>131319</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64807</v>
+        <v>65056</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>79412</v>
+        <v>78710</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>173246</v>
+        <v>171931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>194424</v>
+        <v>198946</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33016</v>
+        <v>33814</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10655</v>
+        <v>10430</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14176</v>
+        <v>13619</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5505</v>
+        <v>5295</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>53462</v>
+        <v>52481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18060</v>
+        <v>18128</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>57076</v>
+        <v>57966</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22509</v>
+        <v>22795</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>32905</v>
+        <v>32032</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14061</v>
+        <v>13859</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>83466</v>
+        <v>82771</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>32353</v>
+        <v>32606</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>39091</v>
+        <v>39329</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>35685</v>
+        <v>34829</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10128</v>
+        <v>9873</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7151</v>
+        <v>7090</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>53435</v>
+        <v>54531</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>45615</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>64747</v>
+        <v>65562</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>54928</v>
+        <v>54529</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>26681</v>
+        <v>27134</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17816</v>
+        <v>17847</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>83534</v>
+        <v>84063</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>68824</v>
+        <v>67857</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>112776</v>
+        <v>110300</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>122773</v>
+        <v>122758</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>71350</v>
+        <v>71227</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>91566</v>
+        <v>92210</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>190415</v>
+        <v>192508</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>223691</v>
+        <v>224370</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>154207</v>
+        <v>152507</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>168677</v>
+        <v>166038</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>107016</v>
+        <v>105945</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>125450</v>
+        <v>124510</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>248074</v>
+        <v>249994</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>281807</v>
+        <v>279648</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>119622</v>
+        <v>120825</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>97721</v>
+        <v>95713</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>68884</v>
+        <v>68225</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>33346</v>
+        <v>34655</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>198410</v>
+        <v>198013</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>138421</v>
+        <v>139747</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>162608</v>
+        <v>164079</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>132924</v>
+        <v>133608</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>105110</v>
+        <v>106885</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>55942</v>
+        <v>56826</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>260210</v>
+        <v>258244</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>181433</v>
+        <v>180945</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
     </row>
     <row r="40">
